--- a/Documents/Templateupload.xlsx
+++ b/Documents/Templateupload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Project\diploma\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C5D36C-4261-4219-A6C3-DCFCFCF0773E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7382575-6CBC-435A-847E-D67EFDF9AA1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{ACAB484B-C04D-4D6C-B7DD-AB387DF186D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACAB484B-C04D-4D6C-B7DD-AB387DF186D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -60,17 +60,41 @@
     <t>Warsaw Spire</t>
   </si>
   <si>
+    <t>PJATK</t>
+  </si>
+  <si>
+    <t>Plac Europejski 1</t>
+  </si>
+  <si>
     <t>Warsaw</t>
   </si>
   <si>
-    <t>05-420</t>
+    <t>Marii Curie-Skłodowskiej 5</t>
+  </si>
+  <si>
+    <t>Philharmonic. Henryk Wieniawski Lublin</t>
+  </si>
+  <si>
+    <t>20-400</t>
+  </si>
+  <si>
+    <t>02-008</t>
+  </si>
+  <si>
+    <t>Koszykowa 86</t>
+  </si>
+  <si>
+    <t>00-839</t>
+  </si>
+  <si>
+    <t>Lublin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +107,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C4043"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="4">
@@ -117,10 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,19 +466,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74ABE2E-3691-468C-8DB9-0058A59BA4F5}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="13.44140625" customWidth="1"/>
-    <col min="9" max="15" width="14.6640625" customWidth="1"/>
+    <col min="1" max="7" width="13.42578125" customWidth="1"/>
+    <col min="9" max="15" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,18 +508,46 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>5213720347</v>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Templateupload.xlsx
+++ b/Documents/Templateupload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Project\diploma\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7382575-6CBC-435A-847E-D67EFDF9AA1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710574D9-FC97-495D-9F58-E62D17D9D7F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACAB484B-C04D-4D6C-B7DD-AB387DF186D1}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,11 +107,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3C4043"/>
-      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="4">
@@ -146,11 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -469,7 +463,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,13 +503,13 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
@@ -523,13 +517,13 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
@@ -537,16 +531,16 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Documents/Templateupload.xlsx
+++ b/Documents/Templateupload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Project\diploma\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710574D9-FC97-495D-9F58-E62D17D9D7F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175238AB-D2BC-40E0-B5D2-1C196B7C4B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACAB484B-C04D-4D6C-B7DD-AB387DF186D1}"/>
+    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12576" xr2:uid="{ACAB484B-C04D-4D6C-B7DD-AB387DF186D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>Zip-code</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Long Lat</t>
-  </si>
-  <si>
-    <t>NIP</t>
   </si>
   <si>
     <t>City</t>
@@ -460,19 +451,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74ABE2E-3691-468C-8DB9-0058A59BA4F5}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="13.42578125" customWidth="1"/>
-    <col min="9" max="15" width="14.7109375" customWidth="1"/>
+    <col min="1" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,68 +471,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Templateupload.xlsx
+++ b/Documents/Templateupload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Project\diploma\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175238AB-D2BC-40E0-B5D2-1C196B7C4B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A1FDDB-1F8B-4A30-BEDC-A8BDF09B54B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12576" xr2:uid="{ACAB484B-C04D-4D6C-B7DD-AB387DF186D1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -54,31 +54,19 @@
     <t>PJATK</t>
   </si>
   <si>
-    <t>Plac Europejski 1</t>
-  </si>
-  <si>
-    <t>Warsaw</t>
-  </si>
-  <si>
-    <t>Marii Curie-Skłodowskiej 5</t>
-  </si>
-  <si>
     <t>Philharmonic. Henryk Wieniawski Lublin</t>
   </si>
   <si>
-    <t>20-400</t>
-  </si>
-  <si>
-    <t>02-008</t>
-  </si>
-  <si>
-    <t>Koszykowa 86</t>
-  </si>
-  <si>
-    <t>00-839</t>
-  </si>
-  <si>
-    <t>Lublin</t>
+    <t>Wroclavia</t>
+  </si>
+  <si>
+    <t>The Bridge (W budowie)</t>
+  </si>
+  <si>
+    <t>Galeria Veneda</t>
+  </si>
+  <si>
+    <t>Ostróda Castle</t>
   </si>
 </sst>
 </file>
@@ -451,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74ABE2E-3691-468C-8DB9-0058A59BA4F5}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,41 +473,40 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
